--- a/data/1-final_data/Standar Munis.xlsx
+++ b/data/1-final_data/Standar Munis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusto/Desktop/UCR/Seminario/Bases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusto/Desktop/UCR/Seminario/Github/DataCleaning/data/1-final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3FC817-B54F-F541-904A-1EDA33D58D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F880C5-099B-8B49-B404-103BA3305462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{8693BA60-A611-B04D-89ED-BB6F05651A7C}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{8693BA60-A611-B04D-89ED-BB6F05651A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="296">
   <si>
     <t>Estandár</t>
   </si>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>Goicochea</t>
-  </si>
-  <si>
-    <t>Alfaro Ruiz (Zarcero)</t>
   </si>
   <si>
     <t>Aguirre (Quepos)</t>
@@ -1303,7 +1300,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1332,16 +1329,16 @@
         <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1398,13 +1395,13 @@
         <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1430,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1464,13 +1461,13 @@
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1602,7 +1599,7 @@
         <v>75</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1645,7 +1642,7 @@
         <v>77</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1668,7 +1665,7 @@
         <v>42</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1691,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1714,7 +1711,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1760,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1783,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1806,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1829,7 +1826,7 @@
         <v>30</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1852,7 +1849,7 @@
         <v>62</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1875,7 +1872,7 @@
         <v>48</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1898,7 +1895,7 @@
         <v>36</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1944,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1964,7 +1961,7 @@
         <v>53</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1984,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2007,7 +2004,7 @@
         <v>81</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2050,7 +2047,7 @@
         <v>31</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2113,7 +2110,7 @@
         <v>45</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2139,7 +2136,7 @@
         <v>72</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2179,7 +2176,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2202,7 +2199,7 @@
         <v>79</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2271,7 +2268,7 @@
         <v>9</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2294,7 +2291,7 @@
         <v>50</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2337,7 +2334,7 @@
         <v>8</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2437,7 +2434,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2497,7 +2494,7 @@
         <v>71</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2521,7 +2518,7 @@
         <v>55</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2547,7 +2544,7 @@
         <v>67</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2587,7 +2584,7 @@
         <v>80</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2610,7 +2607,7 @@
         <v>47</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2650,7 +2647,7 @@
         <v>20</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2696,7 +2693,7 @@
         <v>61</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2782,7 +2779,7 @@
         <v>69</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2805,7 +2802,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2825,7 +2822,7 @@
         <v>74</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2865,7 +2862,7 @@
         <v>33</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2888,7 +2885,7 @@
         <v>76</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2911,7 +2908,7 @@
         <v>58</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3008,7 +3005,7 @@
         <v>27</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/1-final_data/Standar Munis.xlsx
+++ b/data/1-final_data/Standar Munis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusto/Desktop/UCR/Seminario/Github/DataCleaning/data/1-final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F880C5-099B-8B49-B404-103BA3305462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09F997A-5B3F-2E45-BA52-C5E0A938CAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{8693BA60-A611-B04D-89ED-BB6F05651A7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="295">
   <si>
     <t>Estandár</t>
   </si>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>Goicochea</t>
-  </si>
-  <si>
-    <t>Aguirre (Quepos)</t>
   </si>
   <si>
     <t>reelectec_mayors</t>
@@ -1300,7 +1297,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,16 +1326,16 @@
         <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1395,13 +1392,13 @@
         <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1427,7 +1424,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1461,13 +1458,13 @@
         <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1599,7 +1596,7 @@
         <v>75</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1642,7 +1639,7 @@
         <v>77</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1665,7 +1662,7 @@
         <v>42</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1688,7 +1685,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1711,7 +1708,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1757,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1780,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1803,7 +1800,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1826,7 +1823,7 @@
         <v>30</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1849,7 +1846,7 @@
         <v>62</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1872,7 +1869,7 @@
         <v>48</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1895,7 +1892,7 @@
         <v>36</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1941,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1961,7 +1958,7 @@
         <v>53</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1981,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2004,7 +2001,7 @@
         <v>81</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2047,7 +2044,7 @@
         <v>31</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2110,7 +2107,7 @@
         <v>45</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2136,7 +2133,7 @@
         <v>72</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2176,7 +2173,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2199,7 +2196,7 @@
         <v>79</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2268,7 +2265,7 @@
         <v>9</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2291,7 +2288,7 @@
         <v>50</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2334,7 +2331,7 @@
         <v>8</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2434,7 +2431,7 @@
         <v>19</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2494,7 +2491,7 @@
         <v>71</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2518,7 +2515,7 @@
         <v>55</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2544,7 +2541,7 @@
         <v>67</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2584,7 +2581,7 @@
         <v>80</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2607,7 +2604,7 @@
         <v>47</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2647,7 +2644,7 @@
         <v>20</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2693,7 +2690,7 @@
         <v>61</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2779,7 +2776,7 @@
         <v>69</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2802,7 +2799,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2822,7 +2819,7 @@
         <v>74</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2862,7 +2859,7 @@
         <v>33</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2885,7 +2882,7 @@
         <v>76</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2908,7 +2905,7 @@
         <v>58</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3005,7 +3002,7 @@
         <v>27</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
